--- a/liste_profiles/IPE.xlsx
+++ b/liste_profiles/IPE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sylva\Desktop\Linear-supports-main\liste_profiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8805402-0B8C-4F5B-85D4-8944F34AE177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C144EB-1794-4C69-A1F4-57D76432B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{653BA210-1D70-42C8-AACD-3A5E45A06884}"/>
   </bookViews>
@@ -132,10 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -454,393 +453,392 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63290C64-75F0-44EC-8B22-9F67D29FDB76}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>80</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>46</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="E2" s="1">
         <v>3.8</v>
       </c>
-      <c r="E2" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>100</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>55</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="E3" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E3" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>120</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>64</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="E4" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E4" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>140</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>73</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="E5" s="1">
         <v>4.7</v>
       </c>
-      <c r="E5" s="2">
-        <v>6.9</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>160</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>82</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>180</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>91</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
         <v>5.3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>270</v>
+      </c>
+      <c r="C11" s="1">
+        <v>135</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>300</v>
+      </c>
+      <c r="C12" s="1">
+        <v>150</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>330</v>
+      </c>
+      <c r="C13" s="1">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>360</v>
+      </c>
+      <c r="C14" s="1">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="F14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
+        <v>400</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>450</v>
+      </c>
+      <c r="C16" s="1">
+        <v>190</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="1">
+        <v>500</v>
+      </c>
+      <c r="C17" s="1">
         <v>200</v>
       </c>
-      <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.6</v>
-      </c>
-      <c r="E8" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="D17" s="1">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1">
+        <v>550</v>
+      </c>
+      <c r="C18" s="1">
+        <v>210</v>
+      </c>
+      <c r="D18" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>600</v>
+      </c>
+      <c r="C19" s="1">
+        <v>220</v>
+      </c>
+      <c r="D19" s="1">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>220</v>
-      </c>
-      <c r="C9" s="2">
-        <v>110</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5.9</v>
-      </c>
-      <c r="E9" s="2">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>240</v>
-      </c>
-      <c r="C10" s="2">
-        <v>120</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F10" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2">
-        <v>270</v>
-      </c>
-      <c r="C11" s="2">
-        <v>135</v>
-      </c>
-      <c r="D11" s="2">
-        <v>6.6</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="F11" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2">
-        <v>300</v>
-      </c>
-      <c r="C12" s="2">
-        <v>150</v>
-      </c>
-      <c r="D12" s="2">
-        <v>7.1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2">
-        <v>330</v>
-      </c>
-      <c r="C13" s="2">
-        <v>160</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="E13" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="F13" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="2">
-        <v>360</v>
-      </c>
-      <c r="C14" s="2">
-        <v>170</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>12.7</v>
-      </c>
-      <c r="F14" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="2">
-        <v>400</v>
-      </c>
-      <c r="C15" s="2">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="E15" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2">
-        <v>450</v>
-      </c>
-      <c r="C16" s="2">
-        <v>190</v>
-      </c>
-      <c r="D16" s="2">
-        <v>9.4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>14.6</v>
-      </c>
-      <c r="F16" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2">
-        <v>500</v>
-      </c>
-      <c r="C17" s="2">
-        <v>200</v>
-      </c>
-      <c r="D17" s="2">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E17" s="2">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2">
-        <v>550</v>
-      </c>
-      <c r="C18" s="2">
-        <v>210</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>17.2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2">
-        <v>600</v>
-      </c>
-      <c r="C19" s="2">
-        <v>220</v>
-      </c>
-      <c r="D19" s="2">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>24</v>
       </c>
     </row>
